--- a/BT345/Bài tập 3.1.xlsx
+++ b/BT345/Bài tập 3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/hiendh_hcmuit_edu_vn/Documents/UIT/Giang Day/[NT213] Bao mat Web va Ung dung/BM Web - Ung dung/001. BaiGiang-2022/03 - TOP OWASP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT345\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_F25DC773A252ABDACC10487EC9DB57185ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A992EA5-8349-4C71-B0A1-6042E12543F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC213B7-3ECF-4244-AB5C-42DBBB6829BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -112,13 +112,19 @@
   </si>
   <si>
     <t>https://www.root-me.org/en/Challenges/Web-Client/Javascript-Obfuscation-4</t>
+  </si>
+  <si>
+    <t>HTMLCantStopYou</t>
+  </si>
+  <si>
+    <t>sh.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +151,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4F8A10"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -201,6 +213,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +497,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -527,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -540,26 +553,26 @@
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5"/>
     </row>
